--- a/medicine/Enfance/Le_Sarcophage_d'outretemps/Le_Sarcophage_d'outretemps.xlsx
+++ b/medicine/Enfance/Le_Sarcophage_d'outretemps/Le_Sarcophage_d'outretemps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Sarcophage_d%27outretemps</t>
+          <t>Le_Sarcophage_d'outretemps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sarcophage d'outretemps est un roman destiné à la jeunesse, troisième tome de La Trilogie d'Arkandias de l'écrivain français Éric Boisset, publié par Magnard en 1999.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Sarcophage_d%27outretemps</t>
+          <t>Le_Sarcophage_d'outretemps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans ce troisième tome, Théophile et Bonaventure construisent l'objet qui donne son nom au roman éponyme : le sarcophage d'Outretemps, car les deux animaux de Théophile sont morts pour cause d'un petit accident (un chat les avait attaqué car il avait oublié de fermer sa fenêtre). Ce « gadget » permet de voyager dans le passé et dans le futur au son d'une musique hyperchimique. Mais attention ! Le grimoire d'Arkandias précise bien qu’en cas de fausse note, l’expérimentateur est définitivement bloqué dans le cosmos jumeau...
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Sarcophage_d%27outretemps</t>
+          <t>Le_Sarcophage_d'outretemps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Interprétation de l'œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce dernier opus donne son sens à la trilogie d'Arkandias. Par l'entremise de la magie rouge, Théophile a pu franchir un cap difficile et comprendre qu'il n'était pour rien dans la séparation de ses parents. Le voyage qu'il fait dans le passé à bord du sarcophage équivaut à un retour sur soi psychanalytique. Libéré de sa culpabilité, il referme le grimoire magique et peut enfin grandir...
 </t>
